--- a/TheoDoiTienDo.xlsx
+++ b/TheoDoiTienDo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753BAF82-2E7B-4B9E-A221-3BFB156490DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,15 +19,94 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>THEO DÕI TIẾN ĐỘ CÔNG VIỆC</t>
+  </si>
+  <si>
+    <t>Tuần</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Từ ngày </t>
+  </si>
+  <si>
+    <t>Đến ngày</t>
+  </si>
+  <si>
+    <t>Công việc</t>
+  </si>
+  <si>
+    <t>Tình trạng</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Gặp GV xác định yêu cầu</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Tạo github project va add GV</t>
+  </si>
+  <si>
+    <t>Tao bang theo doi CV</t>
+  </si>
+  <si>
+    <t>Viet report ve hien trang</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>Project: Sử dụng các công nghệ mới (MEAN, MERN,...) xây dựng ứng dụng chia sẽ và tìm kiếm quán ăn</t>
+  </si>
+  <si>
+    <t>Rewrite</t>
+  </si>
+  <si>
+    <t>Finish hien trang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cong nghe: </t>
+  </si>
+  <si>
+    <t>Thiet ke: xu ly, db</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +125,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +493,295 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" customWidth="1"/>
+    <col min="6" max="6" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12">
+        <v>43350</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43357</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12">
+        <v>43358</v>
+      </c>
+      <c r="C11" s="12">
+        <v>43365</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>4</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>